--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1129268.193044994</v>
+        <v>1126832.556121287</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673414</v>
+        <v>603248.4937673459</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>256.7518877339</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>114.2656173771016</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>370.3978584295382</v>
       </c>
       <c r="C5" t="n">
-        <v>19.68942351146712</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>2.398536716037788</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>38.18739105194189</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814396</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>218.1043346164863</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1373,19 +1373,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>22.22594751400536</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>284.5473357430883</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806771</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114085</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458122</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035096</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>124.1004521009553</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146325</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>262.4339449510531</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>332.4423155261898</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001846</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.9114848084884</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>161.4590434389557</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722615</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.56423921895112</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>115.7228684476118</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560517</v>
       </c>
     </row>
     <row r="24">
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999784</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444126</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.24347904696321</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>6.60082661159515</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20.92847288552831</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>285.036268539577</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>103.168699193619</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>142.1343012721642</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695614</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576151</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>22.65115569188777</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>13.03790159951753</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.2435806730863</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>66.78466399819887</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>24.94196613735031</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>55.5207962406042</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>178.5134655978075</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609171</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2235.550262878907</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4483,19 +4483,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,22 +4507,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="W4" t="n">
         <v>1722.044275313594</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.50962791956</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912106</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>2719.306689612893</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.0249360836216</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>142.0249360836216</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>142.0249360836216</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>142.0249360836216</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0249360836216</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1535.258832689361</v>
+        <v>1535.258832689345</v>
       </c>
       <c r="C11" t="n">
-        <v>1166.29631574895</v>
+        <v>1166.296315748933</v>
       </c>
       <c r="D11" t="n">
-        <v>808.0306171421994</v>
+        <v>1166.296315748933</v>
       </c>
       <c r="E11" t="n">
-        <v>785.5801651078502</v>
+        <v>780.5080631506894</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078502</v>
+        <v>493.0865118950447</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386827</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420346</v>
+        <v>704.5155104420307</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301228</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878115</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765431</v>
+        <v>2485.180661765421</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687109</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856291</v>
+        <v>3535.048359856278</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388225</v>
+        <v>3835.937563882236</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234601</v>
+        <v>3925.553311234586</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245567</v>
+        <v>3826.588132455655</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.78602197145</v>
+        <v>3622.786021971435</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.29530560406</v>
+        <v>3369.295305604043</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260489</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990375</v>
+        <v>2685.463762990358</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729295</v>
+        <v>2311.998004729278</v>
       </c>
       <c r="Y11" t="n">
-        <v>1921.858672753483</v>
+        <v>1921.858672753467</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,28 +5112,28 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.3627498550305</v>
+        <v>88.36274985503042</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792134</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376515</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649619</v>
+        <v>900.4499396649586</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908852</v>
+        <v>1413.763713908847</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.07202125992</v>
+        <v>1725.649813467298</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333045</v>
+        <v>2198.621366333046</v>
       </c>
       <c r="P12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.8650582458591</v>
+        <v>944.5865336254586</v>
       </c>
       <c r="C13" t="n">
-        <v>78.51106622469202</v>
+        <v>775.6503506975517</v>
       </c>
       <c r="D13" t="n">
-        <v>78.51106622469202</v>
+        <v>775.6503506975517</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51106622469202</v>
+        <v>627.7372571151586</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469202</v>
+        <v>480.8473096172482</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469202</v>
+        <v>313.367412093791</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469202</v>
+        <v>169.132356598773</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600403</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.455047345771</v>
+        <v>368.4550473457698</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888928</v>
+        <v>717.5002252888908</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779223</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542996</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715852</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082524</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551108</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014277</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370159</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920205</v>
+        <v>1935.094986101148</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.397311360494</v>
+        <v>1646.004279541437</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.712823154607</v>
+        <v>1391.31979133555</v>
       </c>
       <c r="W13" t="n">
-        <v>834.2956531176462</v>
+        <v>1126.234998455698</v>
       </c>
       <c r="X13" t="n">
-        <v>606.3061022196289</v>
+        <v>1126.234998455698</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.5135230760987</v>
+        <v>1126.234998455698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,67 +5261,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128776</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
         <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
         <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
         <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
         <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>2005.899154770046</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.1710892086095</v>
+        <v>950.4721904516374</v>
       </c>
       <c r="C16" t="n">
-        <v>762.2349062807026</v>
+        <v>781.5360075237305</v>
       </c>
       <c r="D16" t="n">
-        <v>612.1182668683668</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="E16" t="n">
-        <v>464.2051732859737</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F16" t="n">
-        <v>317.3152257880633</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G16" t="n">
         <v>317.3152257880633</v>
@@ -5431,13 +5431,13 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156341</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861978</v>
       </c>
       <c r="L16" t="n">
         <v>819.184291169332</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.51642936867</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.51642936867</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="T16" t="n">
-        <v>2360.51642936867</v>
+        <v>2140.837647083051</v>
       </c>
       <c r="U16" t="n">
-        <v>2071.440215683397</v>
+        <v>1851.761433397778</v>
       </c>
       <c r="V16" t="n">
-        <v>1816.75572747751</v>
+        <v>1688.671490530146</v>
       </c>
       <c r="W16" t="n">
-        <v>1527.338557440549</v>
+        <v>1399.254320493185</v>
       </c>
       <c r="X16" t="n">
-        <v>1299.349006542532</v>
+        <v>1171.264769595168</v>
       </c>
       <c r="Y16" t="n">
-        <v>1078.556427399002</v>
+        <v>950.4721904516374</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5522,19 +5522,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327645</v>
+        <v>696.7084350851665</v>
       </c>
       <c r="C19" t="n">
-        <v>763.7541388327645</v>
+        <v>527.7722521572596</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908939</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1099.149479058936</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630042</v>
+        <v>878.3568999154062</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098232</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819163</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.78619868161</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6014,22 +6014,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273902</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.6725264685176</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406107</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282751</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458821</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797186</v>
@@ -6151,10 +6151,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987573</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="26">
@@ -6215,46 +6215,46 @@
         <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273902</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>763.7541388327643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>613.6374994204284</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>465.7244058380354</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>318.8344583401251</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>151.6383590550049</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,58 +6455,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876686</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597617</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474261</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6637,7 +6637,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6649,22 +6649,22 @@
         <v>2264.108249235164</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258105</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602303</v>
+        <v>1976.192826467915</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396416</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614385</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179083</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536376</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257307</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133951</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310022</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6929,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273906</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206034</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926965</v>
+        <v>580.899304487669</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803609</v>
+        <v>430.7826650753332</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979679</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000576</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000576</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000576</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
         <v>2035.089393279802</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935238</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729351</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692391</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794373</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508432</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>915.10353054737</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X40" t="n">
-        <v>1394.184733704552</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>1173.392154561022</v>
+        <v>915.10353054737</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327647</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048579</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>444.701316492522</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>296.788222910129</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7594,25 +7594,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1975.033022579362</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1720.348534373475</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>1202.941813438497</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630045</v>
+        <v>982.1492342949672</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133953</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2083.791617318188</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1794.716390662386</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>359.7044225582564</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>122.3287099986231</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203237998</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>43.14636899767255</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034029</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>24.08905338553791</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>50.29152613729082</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.92049537344892</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>90.67859988487226</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.05123379926124</v>
+        <v>24.81829093850976</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>32.89260457060055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
     </row>
     <row r="24">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>43.72409101823392</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-8.15987277746899e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986316</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.05123379926067</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>211.9838267404996</v>
       </c>
     </row>
     <row r="29">
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>125.5054897610409</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.148205849667161</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>43.26526345295021</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>123.7828069546814</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>273.1465727897266</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.58839950885101</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>100.462157100429</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>154.890014044587</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>110.0033420516643</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>38.89198472948101</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>975703.0709607549</v>
+        <v>975703.070960755</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>975703.0709607549</v>
+        <v>975703.070960755</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877019.8763537093</v>
+        <v>877019.8763537074</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954127.7230449085</v>
+        <v>954127.7230449084</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959376.2460059791</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.2460059787</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059788</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059791</v>
       </c>
     </row>
     <row r="15">
@@ -26314,31 +26314,31 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719632</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719632</v>
-      </c>
       <c r="E2" t="n">
-        <v>423807.2415876641</v>
+        <v>423807.2415876632</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918679</v>
+        <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217536</v>
@@ -26347,13 +26347,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185179</v>
+        <v>143114.1392185144</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051361</v>
+        <v>166521.3471051392</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557904</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115392</v>
+        <v>37377.32855115293</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848859</v>
+        <v>43782.40655848951</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224429</v>
+        <v>3023.297977224638</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11677.85525949978</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214729</v>
+        <v>86093.72216214699</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1055543.67960518</v>
+        <v>-1055543.679605179</v>
       </c>
       <c r="C6" t="n">
-        <v>273201.0661224127</v>
+        <v>273201.0661224128</v>
       </c>
       <c r="D6" t="n">
-        <v>273201.0661224128</v>
+        <v>273201.0661224126</v>
       </c>
       <c r="E6" t="n">
-        <v>182921.5249474991</v>
+        <v>182711.5607036572</v>
       </c>
       <c r="F6" t="n">
-        <v>183106.9494773129</v>
+        <v>183061.044481744</v>
       </c>
       <c r="G6" t="n">
-        <v>340042.552545462</v>
+        <v>340007.8146200259</v>
       </c>
       <c r="H6" t="n">
-        <v>351209.7887810407</v>
+        <v>351175.050855605</v>
       </c>
       <c r="I6" t="n">
-        <v>351209.7887810407</v>
+        <v>351175.050855605</v>
       </c>
       <c r="J6" t="n">
-        <v>133678.5863837632</v>
+        <v>133643.8484583276</v>
       </c>
       <c r="K6" t="n">
-        <v>351209.7887810407</v>
+        <v>351175.0508556051</v>
       </c>
       <c r="L6" t="n">
-        <v>351209.7887810407</v>
+        <v>351175.050855605</v>
       </c>
       <c r="M6" t="n">
-        <v>313832.4602298869</v>
+        <v>313797.7223044522</v>
       </c>
       <c r="N6" t="n">
-        <v>307427.3822225521</v>
+        <v>307392.6442971156</v>
       </c>
       <c r="O6" t="n">
-        <v>348186.4908038164</v>
+        <v>348151.7528783804</v>
       </c>
       <c r="P6" t="n">
-        <v>351209.7887810407</v>
+        <v>351175.0508556051</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494558</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086502</v>
+        <v>981.3883278086464</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012594</v>
+        <v>122.3935669012565</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218281</v>
+        <v>145.8707812218308</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063573</v>
+        <v>149.9868724063538</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173568</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063575</v>
+        <v>149.9868724063535</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173566</v>
+        <v>178.7569625173603</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063573</v>
+        <v>149.9868724063538</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173568</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>108.5210040371075</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>172.2573809594894</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>12.33598323394239</v>
       </c>
       <c r="C5" t="n">
-        <v>345.5834682595404</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>21.5947289549143</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>217.1504125601314</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>327.0855007190656</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803251</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>68.10750358912654</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485656</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508998</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380259</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307185</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726065</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216983</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857437</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898399</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294419</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615146</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895595</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356986</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951045</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475347</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188524</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969426</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191525</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059649</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783045</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.023327720256</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256424</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845339</v>
+        <v>660.6327957845323</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147149</v>
+        <v>446.3781762837883</v>
       </c>
       <c r="O12" t="n">
-        <v>388.605683912248</v>
+        <v>620.3452877431803</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205477</v>
+        <v>497.8817840205465</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697593</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780659</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190413</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236088</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737177</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691799</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836914</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619745</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.980861550918</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263714</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973099</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050064</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.37234817619</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916782</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570623</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929617</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826917</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.119229862376514</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,7 +32069,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,31 +32081,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>487.0792071670518</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>358.3392732200435</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,7 +32804,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040322</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276259</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.236839251711</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.318058158471</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932489</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077551</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062451</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151099</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156644</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116378</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.181888745897</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457682</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625155</v>
+        <v>518.4987618625139</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313817</v>
+        <v>315.036464200455</v>
       </c>
       <c r="O12" t="n">
-        <v>246.0094394678036</v>
+        <v>477.7490432987358</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062175</v>
+        <v>363.9073766062163</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701861</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360916</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112341</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788212</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765385</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.549444619046</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410835</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998383</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>355.7374950837184</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>215.7430287755991</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,7 +36452,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
